--- a/WSC/Test Report/SLCM/WSC SLCM_Admission- Masters.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Admission- Masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Department" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="368">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -54,24 +54,24 @@
     <t>Aman Kumar Singh</t>
   </si>
   <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>Pre-requisite</t>
+  </si>
+  <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>S#</t>
-  </si>
-  <si>
-    <t>Pre-requisite</t>
-  </si>
-  <si>
-    <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
   </si>
   <si>
     <t>The system should have records in the following screen
 1.Company
 2. Leave Block List</t>
+  </si>
+  <si>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -315,48 +315,63 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      </rPr>
+      <t xml:space="preserve"> Admin</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Admin</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user should have all the following accesses:
-</t>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login as </t>
     </r>
     <r>
       <rPr>
@@ -365,21 +380,22 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create,Delete</t>
-    </r>
-  </si>
-  <si>
+      </rPr>
+      <t>Trainer</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user should have the only  accesses:
 </t>
     </r>
     <r>
@@ -389,20 +405,31 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create,Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      </rPr>
+      <t>Read</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user can not  the  accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
+      </rPr>
+      <t>Read</t>
+    </r>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -412,9 +439,8 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trainer</t>
+      </rPr>
+      <t xml:space="preserve">Student </t>
     </r>
     <r>
       <rPr>
@@ -422,45 +448,279 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      </rPr>
+      <t>and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user should have the only  accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      </rPr>
+      <t>Student Applicant</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <t>TC2_Course Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A Program Grade is a specialized functional area or a division within the Department. 
+2. User can add or modify Program Grade and Link Field Programs to it. </t>
+  </si>
+  <si>
+    <t>Executed  By</t>
+  </si>
+  <si>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@test.com,  PW: erp@123
+Student: student@test.com, PW: erp@123</t>
+  </si>
+  <si>
+    <t>Verify the add course type module.</t>
+  </si>
+  <si>
+    <t>Actual Results (SLCM Admin)</t>
+  </si>
+  <si>
+    <t>Addmission &gt; Course Type</t>
+  </si>
+  <si>
+    <t>Click on Course Type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Course Type page should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Open</t>
+    </r>
+  </si>
+  <si>
+    <t>Course Type page is Opening</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+Add Course Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>New course type Page should be Open</t>
+  </si>
+  <si>
+    <t>New course type Page is Opening</t>
+  </si>
+  <si>
+    <t>Verify the mandatory fields. Without fill any fields, click on save button</t>
+  </si>
+  <si>
+    <t>Mandatory fields should have star(*) mark. Alert message should be shown for mandatory fields</t>
+  </si>
+  <si>
+    <t>Star mark(*) is not showing for corse type fields, whereas that is a mandatory field</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Fill the course type &amp; description field, click on save button</t>
+  </si>
+  <si>
+    <t>Data should be able to fill. Page should be saved</t>
+  </si>
+  <si>
+    <t>Data is able to fill. Page is saved</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user can not  the  accesses:
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <t>TC3_Course</t>
+  </si>
+  <si>
+    <t>1.A program will have an educational curriculum defined by user institute to streamline the learning process and goals in each subject or module. 
+2. For example, Mechatronics would be a program taught at the institute that will have various modules within</t>
+  </si>
+  <si>
+    <t>Verify the add course &amp; ToT.</t>
+  </si>
+  <si>
+    <t>Addmission &gt; &gt; Masters &gt; Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Course </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Course page should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Open</t>
+    </r>
+  </si>
+  <si>
+    <t>Course page is Opening</t>
+  </si>
+  <si>
+    <t>Click on Add course Button</t>
+  </si>
+  <si>
+    <t>New course addition page should be open</t>
+  </si>
+  <si>
+    <t>New course addition page is opening</t>
+  </si>
+  <si>
+    <t>Verify the mandatory fields. without fill any field, click on save button</t>
+  </si>
+  <si>
+    <t>star(*) mark &amp; Alert message should be shown for mandatory fields. Red mark / Highlighted should be shown for all mandatory fields after get the alert message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red mark / Highlighted is not showing for course duration field  after get the alert message</t>
+  </si>
+  <si>
+    <t>Fill mandatory fields, cliock on save button</t>
+  </si>
+  <si>
+    <t>Page should be saved successfully.</t>
+  </si>
+  <si>
+    <t>Page is saved successfully.</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>click on 'Is ToT' checkbox</t>
+  </si>
+  <si>
+    <t>Is ToT' checkbox should be clickable. ToT related fields should be shown</t>
+  </si>
+  <si>
+    <t>Is ToT' checkbox is clickable. ToT related fields is showing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add row button of Modules List section. </t>
+  </si>
+  <si>
+    <t>Add row button should be  clickable &amp; new blank row should be shown</t>
+  </si>
+  <si>
+    <t>Add row button is clickable &amp; new blank row is showing</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Choose module ID from dropdown</t>
+  </si>
+  <si>
+    <t>Module ID should be linked with the master screen. By fill the module ID, module name, code &amp; expire date should be auto filled</t>
+  </si>
+  <si>
+    <t>Module ID is linked with the master screen. By fill the module ID, module name, code &amp; expire date is auto filled</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Fill the mandatory field and module list of ToT, click on save button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user  can not have the  accesses:
 </t>
     </r>
     <r>
@@ -470,386 +730,22 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Read</t>
     </r>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <r>
+      <t xml:space="preserve">The user  have the only  accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Student </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Student Applicant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <t>TC2_Course Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A Program Grade is a specialized functional area or a division within the Department. 
-2. User can add or modify Program Grade and Link Field Programs to it. </t>
-  </si>
-  <si>
-    <t>Executed  By</t>
-  </si>
-  <si>
-    <t>Verify the add course type module.</t>
-  </si>
-  <si>
-    <t>Actual Results (SLCM Admin)</t>
-  </si>
-  <si>
-    <t>Addmission &gt; Course Type</t>
-  </si>
-  <si>
-    <t>Click on Course Type</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Course Type page should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Open</t>
-    </r>
-  </si>
-  <si>
-    <t>Course Type page is Opening</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">+Add Course Type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>button</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>New course type Page should be Open</t>
-  </si>
-  <si>
-    <t>New course type Page is Opening</t>
-  </si>
-  <si>
-    <t>Verify the mandatory fields. Without fill any fields, click on save button</t>
-  </si>
-  <si>
-    <t>Mandatory fields should have star(*) mark. Alert message should be shown for mandatory fields</t>
-  </si>
-  <si>
-    <t>Star mark(*) is not showing for corse type fields, whereas that is a mandatory field</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Fill the course type &amp; description field, click on save button</t>
-  </si>
-  <si>
-    <t>Data should be able to fill. Page should be saved</t>
-  </si>
-  <si>
-    <t>Data is able to fill. Page is saved</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create,Delete</t>
-    </r>
-  </si>
-  <si>
-    <t>TC3_Course</t>
-  </si>
-  <si>
-    <t>1.A program will have an educational curriculum defined by user institute to streamline the learning process and goals in each subject or module. 
-2. For example, Mechatronics would be a program taught at the institute that will have various modules within</t>
-  </si>
-  <si>
-    <t>Verify the add course &amp; ToT.</t>
-  </si>
-  <si>
-    <t>Addmission &gt; &gt; Masters &gt; Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Course </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Course page should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Open</t>
-    </r>
-  </si>
-  <si>
-    <t>Course page is Opening</t>
-  </si>
-  <si>
-    <t>Click on Add course Button</t>
-  </si>
-  <si>
-    <t>New course addition page should be open</t>
-  </si>
-  <si>
-    <t>New course addition page is opening</t>
-  </si>
-  <si>
-    <t>Verify the mandatory fields. without fill any field, click on save button</t>
-  </si>
-  <si>
-    <t>star(*) mark &amp; Alert message should be shown for mandatory fields. Red mark / Highlighted should be shown for all mandatory fields after get the alert message</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red mark / Highlighted is not showing for course duration field  after get the alert message</t>
-  </si>
-  <si>
-    <t>Fill mandatory fields, cliock on save button</t>
-  </si>
-  <si>
-    <t>Page should be saved successfully.</t>
-  </si>
-  <si>
-    <t>Page is saved successfully.</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>click on 'Is ToT' checkbox</t>
-  </si>
-  <si>
-    <t>Is ToT' checkbox should be clickable. ToT related fields should be shown</t>
-  </si>
-  <si>
-    <t>Is ToT' checkbox is clickable. ToT related fields is showing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Add row button of Modules List section. </t>
-  </si>
-  <si>
-    <t>Add row button should be  clickable &amp; new blank row should be shown</t>
-  </si>
-  <si>
-    <t>Add row button is clickable &amp; new blank row is showing</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Choose module ID from dropdown</t>
-  </si>
-  <si>
-    <t>Module ID should be linked with the master screen. By fill the module ID, module name, code &amp; expire date should be auto filled</t>
-  </si>
-  <si>
-    <t>Module ID is linked with the master screen. By fill the module ID, module name, code &amp; expire date is auto filled</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <t>Fill the mandatory field and module list of ToT, click on save button</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  can not have the  accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have the only  accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Read</t>
     </r>
@@ -886,105 +782,82 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
+      <t xml:space="preserve">Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Click on </t>
+      <t>+Add SEMESTER</t>
+    </r>
+  </si>
+  <si>
+    <t>New Semster Add page opens up</t>
+  </si>
+  <si>
+    <t>New Semster Add page is opening</t>
+  </si>
+  <si>
+    <t>Without fill any data, click on save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Semester Name </t>
+  </si>
+  <si>
+    <t>Semester name should be entered successfully</t>
+  </si>
+  <si>
+    <t>Semester name is entered successfully</t>
+  </si>
+  <si>
+    <t>Click on module dropdown, choose one module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module dropdown should be linked field &amp; link with master screen. Created new module should be shown on module dropdown list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created new module is not showing on module dropdown list </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login as </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+Add SEMESTER</t>
-    </r>
-  </si>
-  <si>
-    <t>New Semster Add page opens up</t>
-  </si>
-  <si>
-    <t>New Semster Add page is opening</t>
-  </si>
-  <si>
-    <t>Without fill any data, click on save button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Semester Name </t>
-  </si>
-  <si>
-    <t>Semester name should be entered successfully</t>
-  </si>
-  <si>
-    <t>Semester name is entered successfully</t>
-  </si>
-  <si>
-    <t>Click on module dropdown, choose one module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module dropdown should be linked field &amp; link with master screen. Created new module should be shown on module dropdown list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created new module is not showing on module dropdown list </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Login as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      </rPr>
+      <t xml:space="preserve"> Academics User</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Academics User</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user have the only  accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and check the access privileges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user have the only  accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Read</t>
     </r>
@@ -1128,36 +1001,48 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t xml:space="preserve">Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Year Start Date
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Year Start Date
-</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t xml:space="preserve">Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Set </t>
+      </rPr>
+      <t>Year End Date</t>
+    </r>
+  </si>
+  <si>
+    <t>Calender pop up should be shown</t>
+  </si>
+  <si>
+    <t>Calender pop up is showing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">without fill any fields, Click On </t>
     </r>
     <r>
       <rPr>
@@ -1166,34 +1051,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Year End Date</t>
-    </r>
-  </si>
-  <si>
-    <t>Calender pop up should be shown</t>
-  </si>
-  <si>
-    <t>Calender pop up is showing</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">without fill any fields, Click On </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Save </t>
     </r>
@@ -1201,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>Button</t>
@@ -1271,29 +1128,23 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
+      <t xml:space="preserve">After fill mandatory fields, Click On </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">After fill mandatory fields, Click On </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Save </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>Button</t>
@@ -1361,14 +1212,23 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user should have all the following accesses:
+      </rPr>
+      <t>Read,Write,Create,Delete &amp; Submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user have all the following accesses:
 </t>
     </r>
     <r>
@@ -1378,31 +1238,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create,Delete &amp; Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Read,Write,Create,Delete &amp; Submit</t>
     </r>
@@ -2062,6 +1897,177 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Student </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have the only  accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user have all the following accesses:
 </t>
     </r>
@@ -2083,12 +2089,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,6 +2109,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2141,17 +2160,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.149998474074526"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2291,8 +2317,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2302,12 +2335,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,7 +2537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2537,39 +2564,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -2683,28 +2677,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2713,117 +2695,129 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2837,193 +2831,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3082,8 +3115,8 @@
   <colors>
     <mruColors>
       <color rgb="00FFFD3D"/>
+      <color rgb="00DAC98C"/>
       <color rgb="00FFFE8B"/>
-      <color rgb="00DAC98C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3379,520 +3412,513 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
-    <col min="2" max="2" width="60.2857142857143" style="30" customWidth="1"/>
-    <col min="3" max="3" width="60.4285714285714" style="30" customWidth="1"/>
-    <col min="4" max="4" width="53.1428571428571" style="30" customWidth="1"/>
-    <col min="5" max="5" width="20.8571428571429" style="30" customWidth="1"/>
-    <col min="6" max="6" width="20.2857142857143" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="30"/>
+    <col min="1" max="1" width="13.5714285714286" style="32" customWidth="1"/>
+    <col min="2" max="2" width="60.2857142857143" style="32" customWidth="1"/>
+    <col min="3" max="3" width="60.4285714285714" style="32" customWidth="1"/>
+    <col min="4" max="4" width="53.1428571428571" style="32" customWidth="1"/>
+    <col min="5" max="5" width="20.8571428571429" style="32" customWidth="1"/>
+    <col min="6" max="6" width="20.2857142857143" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="95" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="105" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="33" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="75" spans="1:4">
-      <c r="A6" s="33" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="7" t="s">
+    </row>
+    <row r="7" ht="75" spans="1:3">
+      <c r="A7" s="50">
+        <v>1</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="45" spans="1:4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="67"/>
-    </row>
-    <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="59" t="s">
+      <c r="C10" s="35"/>
+    </row>
+    <row r="13" ht="30" spans="1:6">
+      <c r="A13" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="27"/>
+      <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="27"/>
+      <c r="E17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" ht="75" spans="1:6">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="27"/>
+      <c r="E18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" ht="45" spans="1:6">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="27"/>
+      <c r="E19" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="69"/>
+      <c r="E20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" ht="30" spans="1:6">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="69"/>
+      <c r="E21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" ht="30" spans="1:6">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="69"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="27" t="s">
+      <c r="E22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" ht="30" spans="1:6">
+      <c r="A23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="27" t="s">
+      <c r="E23" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" ht="30" spans="1:6">
+      <c r="A24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
+      <c r="E24" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" ht="30" spans="1:6">
+      <c r="A25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="27"/>
+      <c r="E25" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="27"/>
+      <c r="E26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="27" t="s">
+      <c r="E27" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" ht="30" spans="1:6">
+      <c r="A28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="27"/>
+      <c r="E28" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="27"/>
+      <c r="E29" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="27"/>
+      <c r="E30" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="27"/>
+      <c r="E31" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="27"/>
+      <c r="E32" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="35"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-    </row>
-    <row r="36" s="31" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41" t="s">
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+    </row>
+    <row r="36" s="33" customFormat="1" ht="30" spans="1:5">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="43"/>
+      <c r="D36" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="17" t="s">
+    <row r="37" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="17" t="s">
+      <c r="E37" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="17" t="s">
+    <row r="39" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="17" t="s">
+    <row r="40" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="27"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="3">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:C36"/>
@@ -3906,17 +3932,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
@@ -3929,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3957,8 +3983,12 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3966,49 +3996,45 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>320</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4016,360 +4042,373 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="G10" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="9">
+      <c r="D12" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="9">
+      <c r="D13" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="9">
+      <c r="D14" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="D15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="11">
         <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="9">
-        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="D17" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="9">
+      <c r="D18" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="11">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="D19" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="11">
         <v>9</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="9">
+      <c r="D20" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="11">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="9">
+      <c r="F21" s="3"/>
+      <c r="G21" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="9">
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="11">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9">
+      <c r="F22" s="3"/>
+      <c r="G22" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="9">
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="11">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9">
+      <c r="F23" s="3"/>
+      <c r="G23" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="12"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="E25" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="12"/>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4379,235 +4418,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
-    <col min="2" max="2" width="47.4285714285714" style="30" customWidth="1"/>
-    <col min="3" max="3" width="49.5714285714286" style="30" customWidth="1"/>
-    <col min="4" max="4" width="42.1428571428571" style="30" customWidth="1"/>
-    <col min="5" max="5" width="40.4285714285714" style="30" customWidth="1"/>
-    <col min="6" max="6" width="33.1428571428571" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.7142857142857" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="30"/>
+    <col min="1" max="1" width="13.5714285714286" style="32" customWidth="1"/>
+    <col min="2" max="2" width="47.4285714285714" style="32" customWidth="1"/>
+    <col min="3" max="3" width="49.5714285714286" style="32" customWidth="1"/>
+    <col min="4" max="4" width="42.1428571428571" style="32" customWidth="1"/>
+    <col min="5" max="5" width="40.4285714285714" style="32" customWidth="1"/>
+    <col min="6" max="6" width="33.1428571428571" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="58" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="105" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="35"/>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
+    </row>
+    <row r="7" ht="75" spans="1:3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="37"/>
+      <c r="B9" s="35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" ht="29.25" spans="1:6">
-      <c r="A17" s="28" t="s">
+      <c r="D16" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" ht="30" spans="1:6">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="27"/>
+      <c r="D17" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="21" s="31" customFormat="1" spans="1:5">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41" t="s">
+      <c r="D19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="21" s="33" customFormat="1" spans="1:5">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="80" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="1">
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4621,405 +4651,394 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="31" customWidth="1"/>
-    <col min="2" max="2" width="58.8571428571429" style="31" customWidth="1"/>
-    <col min="3" max="3" width="71" style="31" customWidth="1"/>
-    <col min="4" max="4" width="45.4285714285714" style="31" customWidth="1"/>
-    <col min="5" max="5" width="39" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9" style="31" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="13.5714285714286" style="70" customWidth="1"/>
+    <col min="2" max="2" width="58.8571428571429" style="70" customWidth="1"/>
+    <col min="3" max="3" width="71" style="70" customWidth="1"/>
+    <col min="4" max="4" width="45.4285714285714" style="70" customWidth="1"/>
+    <col min="5" max="5" width="39" style="70" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="70" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="70" customWidth="1"/>
+    <col min="8" max="8" width="9" style="70" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" ht="79" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="79" customHeight="1" spans="1:4">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="D1" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" ht="120" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="D6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" ht="75" spans="1:7">
+      <c r="A7" s="73">
+        <v>1</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="33" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" s="30" customFormat="1" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" s="30" customFormat="1" spans="1:6">
-      <c r="A15" s="27" t="s">
+      <c r="G13" s="69"/>
+    </row>
+    <row r="14" s="69" customFormat="1" spans="1:6">
+      <c r="A14" s="71"/>
+      <c r="B14" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+    </row>
+    <row r="15" s="69" customFormat="1" spans="1:6">
+      <c r="A15" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="27"/>
+      <c r="D15" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="71"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="C16" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="61" t="s">
+      <c r="D16" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="71"/>
+    </row>
+    <row r="17" ht="45" spans="1:6">
+      <c r="A17" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="C17" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="D17" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="62"/>
+      <c r="D18" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" ht="30" spans="1:6">
+      <c r="A20" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="71"/>
+    </row>
+    <row r="21" ht="45" spans="1:6">
+      <c r="A21" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="71"/>
+    </row>
+    <row r="22" ht="30" spans="1:6">
+      <c r="A22" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" ht="45" spans="1:6">
-      <c r="A21" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="24" s="31" customFormat="1" spans="1:5">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41" t="s">
+      <c r="E22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="71"/>
+    </row>
+    <row r="24" s="70" customFormat="1" spans="1:5">
+      <c r="A24" s="76"/>
+      <c r="B24" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="63" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="17" t="s">
+    <row r="25" s="70" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="17" t="s">
+      <c r="E25" s="75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="70" customFormat="1" ht="30" spans="1:5">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="17" t="s">
+    <row r="27" s="70" customFormat="1" ht="30" spans="1:5">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="75" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="1">
     <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,351 +5049,334 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
-    <col min="2" max="2" width="36.1428571428571" style="30" customWidth="1"/>
-    <col min="3" max="3" width="56.7142857142857" style="30" customWidth="1"/>
-    <col min="4" max="4" width="43.7142857142857" style="30" customWidth="1"/>
-    <col min="5" max="5" width="21.2857142857143" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="30"/>
+    <col min="1" max="1" width="13.5714285714286" style="55" customWidth="1"/>
+    <col min="2" max="2" width="36.1428571428571" style="55" customWidth="1"/>
+    <col min="3" max="3" width="56.7142857142857" style="55" customWidth="1"/>
+    <col min="4" max="4" width="43.7142857142857" style="55" customWidth="1"/>
+    <col min="5" max="5" width="21.2857142857143" style="55" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" style="55" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" ht="73" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="73" customHeight="1" spans="1:4">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="D1" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="5:6">
-      <c r="E5" s="53" t="s">
+    <row r="5" customHeight="1"/>
+    <row r="6" ht="21" customHeight="1" spans="1:4">
+      <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="54"/>
-    </row>
-    <row r="6" ht="75" customHeight="1" spans="1:6">
-      <c r="A6" s="33" t="s">
+      <c r="B6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" ht="45" spans="1:6">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" ht="75" spans="1:6">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="37"/>
-    </row>
-    <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="59" t="s">
+      <c r="B9" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:6">
+      <c r="A11" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="56" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" ht="30" spans="1:6">
+      <c r="A14" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="27"/>
+      <c r="D14" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
+      <c r="D15" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" ht="30" spans="1:6">
+      <c r="A16" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="27"/>
+      <c r="E16" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="27" t="s">
+      <c r="D17" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" ht="45" spans="1:6">
+      <c r="A18" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" s="54" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="66"/>
+    </row>
+    <row r="20" s="54" customFormat="1" ht="45" spans="1:6">
+      <c r="A20" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="66"/>
+    </row>
+    <row r="21" s="54" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" s="31" customFormat="1" ht="30" spans="1:6">
-      <c r="A19" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" s="31" customFormat="1" ht="45" spans="1:6">
-      <c r="A20" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" s="31" customFormat="1" spans="1:6">
-      <c r="A21" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="23" s="31" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41" t="s">
+      <c r="E21" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="66"/>
+    </row>
+    <row r="23" s="54" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="67"/>
+      <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="64" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="17" t="s">
+    <row r="24" s="54" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="67"/>
+      <c r="B24" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="17" t="s">
+      <c r="D24" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" s="54" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="67"/>
+      <c r="B25" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="17" t="s">
+      <c r="D25" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="54" customFormat="1" ht="30" spans="1:5">
+      <c r="A26" s="67"/>
+      <c r="B26" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="2">
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,339 +5388,328 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
-    <col min="2" max="2" width="44.4285714285714" style="30" customWidth="1"/>
-    <col min="3" max="3" width="59.1428571428571" style="30" customWidth="1"/>
-    <col min="4" max="4" width="46.2857142857143" style="30" customWidth="1"/>
-    <col min="5" max="5" width="23.5714285714286" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.8571428571429" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="30"/>
+    <col min="1" max="1" width="13.5714285714286" style="32" customWidth="1"/>
+    <col min="2" max="2" width="44.4285714285714" style="32" customWidth="1"/>
+    <col min="3" max="3" width="59.1428571428571" style="32" customWidth="1"/>
+    <col min="4" max="4" width="46.2857142857143" style="32" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="32" customWidth="1"/>
+    <col min="6" max="6" width="15.8571428571429" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" ht="122" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="75" spans="1:3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:6">
+      <c r="A10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" ht="30" spans="1:6">
+      <c r="A16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" ht="30" spans="1:6">
+      <c r="A17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" ht="30" spans="1:6">
+      <c r="A18" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" ht="30" spans="1:6">
+      <c r="A20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="22" s="33" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="42"/>
+      <c r="B22" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5">
-      <c r="D4" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" ht="90" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="37"/>
-    </row>
-    <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="31" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="E24" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="27" t="s">
+      <c r="D25" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="38" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="1">
     <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5729,293 +5720,278 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="31" customWidth="1"/>
-    <col min="2" max="2" width="38.2857142857143" style="31" customWidth="1"/>
-    <col min="3" max="3" width="36.1428571428571" style="31" customWidth="1"/>
-    <col min="4" max="4" width="38.1428571428571" style="31" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="13.5714285714286" style="33" customWidth="1"/>
+    <col min="2" max="2" width="38.2857142857143" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.1428571428571" style="33" customWidth="1"/>
+    <col min="4" max="4" width="38.1428571428571" style="33" customWidth="1"/>
+    <col min="5" max="5" width="20.7142857142857" style="33" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="72" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="32" customFormat="1" ht="72" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" s="32" customFormat="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" s="32" customFormat="1" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="32" customFormat="1"/>
+    <row r="5" s="32" customFormat="1" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="32" customFormat="1" ht="120" spans="1:3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="32" customFormat="1"/>
+    <row r="8" s="32" customFormat="1" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" s="32" customFormat="1"/>
+    <row r="10" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" s="32" customFormat="1" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" ht="30" spans="1:6">
+      <c r="A15" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" ht="30" spans="1:6">
+      <c r="A16" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" ht="30" spans="1:6">
+      <c r="A17" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" ht="30" spans="1:6">
+      <c r="A18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" s="30" customFormat="1" spans="1:8">
-      <c r="A2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" s="30" customFormat="1" spans="1:2">
-      <c r="A3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="30" customFormat="1"/>
-    <row r="5" s="30" customFormat="1" spans="1:4">
-      <c r="A5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="30" customFormat="1" ht="120" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="30" customFormat="1" spans="4:4">
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" s="30" customFormat="1" spans="1:3">
-      <c r="A8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="37"/>
-    </row>
-    <row r="9" s="30" customFormat="1"/>
-    <row r="10" s="30" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="E18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="20" s="33" customFormat="1" ht="30" spans="1:5">
+      <c r="A20" s="42"/>
+      <c r="B20" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="30" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" s="30" customFormat="1" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A13" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="20" s="31" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="17" t="s">
+    </row>
+    <row r="21" s="34" customFormat="1" ht="45" spans="1:5">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="17" t="s">
+      <c r="E21" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="1">
     <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6026,295 +6002,281 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="31" customWidth="1"/>
-    <col min="2" max="2" width="33" style="31" customWidth="1"/>
-    <col min="3" max="3" width="46.8571428571429" style="31" customWidth="1"/>
-    <col min="4" max="4" width="43.1428571428571" style="31" customWidth="1"/>
-    <col min="5" max="5" width="22.1428571428571" style="31" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="13.5714285714286" style="33" customWidth="1"/>
+    <col min="2" max="2" width="33" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.8571428571429" style="33" customWidth="1"/>
+    <col min="4" max="4" width="43.1428571428571" style="33" customWidth="1"/>
+    <col min="5" max="5" width="22.1428571428571" style="33" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="32" customFormat="1" ht="60" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" s="30" customFormat="1" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="D1" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" s="32" customFormat="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" s="30" customFormat="1" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" s="32" customFormat="1" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="30" customFormat="1"/>
-    <row r="5" s="30" customFormat="1" spans="1:4">
-      <c r="A5" s="33" t="s">
+    <row r="4" s="32" customFormat="1"/>
+    <row r="5" s="32" customFormat="1" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="30" customFormat="1" ht="90" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="30" customFormat="1" spans="4:4">
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" s="30" customFormat="1" spans="1:3">
-      <c r="A8" s="33" t="s">
+    </row>
+    <row r="6" s="32" customFormat="1" ht="75" spans="1:3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="32" customFormat="1"/>
+    <row r="8" s="32" customFormat="1" spans="1:2">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" s="30" customFormat="1"/>
-    <row r="10" s="30" customFormat="1"/>
-    <row r="11" s="30" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A11" s="38" t="s">
+      <c r="B8" s="50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" s="32" customFormat="1"/>
+    <row r="10" s="32" customFormat="1"/>
+    <row r="11" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="30" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" s="30" customFormat="1" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A14" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="27" t="s">
+    <row r="12" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" s="32" customFormat="1" spans="1:6">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A14" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="27"/>
+      <c r="D14" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="39"/>
+      <c r="D15" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="39"/>
+      <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="A17" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="39"/>
+      <c r="D17" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" ht="75" spans="1:6">
-      <c r="A18" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="39"/>
+      <c r="D18" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="21" s="31" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41" t="s">
+      <c r="D19" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="21" s="33" customFormat="1" ht="30" spans="1:5">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="17" t="s">
+      <c r="E22" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6325,214 +6287,203 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15" style="31" customWidth="1"/>
-    <col min="2" max="2" width="71.2857142857143" style="31" customWidth="1"/>
-    <col min="3" max="3" width="50" style="31" customWidth="1"/>
-    <col min="4" max="4" width="43.4285714285714" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="31" customWidth="1"/>
-    <col min="6" max="6" width="16.2857142857143" style="31" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="15" style="33" customWidth="1"/>
+    <col min="2" max="2" width="71.2857142857143" style="33" customWidth="1"/>
+    <col min="3" max="3" width="50" style="33" customWidth="1"/>
+    <col min="4" max="4" width="43.4285714285714" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.2857142857143" style="33" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="64" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="32" customFormat="1" ht="64" customHeight="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" s="30" customFormat="1" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="D1" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" s="32" customFormat="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" s="30" customFormat="1" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" s="32" customFormat="1" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="30" customFormat="1"/>
-    <row r="5" s="30" customFormat="1" spans="1:4">
-      <c r="A5" s="33" t="s">
+    <row r="4" s="32" customFormat="1"/>
+    <row r="5" s="32" customFormat="1" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="30" customFormat="1" ht="90" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="30" customFormat="1"/>
-    <row r="8" s="30" customFormat="1" spans="1:3">
-      <c r="A8" s="33" t="s">
+    </row>
+    <row r="6" s="32" customFormat="1" ht="75" spans="1:3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="32" customFormat="1"/>
+    <row r="8" s="32" customFormat="1" spans="1:2">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="37"/>
-    </row>
-    <row r="9" s="30" customFormat="1"/>
-    <row r="10" s="30" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A10" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" s="32" customFormat="1"/>
+    <row r="10" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="30" customFormat="1" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" s="30" customFormat="1" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" s="30" customFormat="1" spans="1:6">
-      <c r="A13" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="27" t="s">
+    <row r="11" s="32" customFormat="1" spans="1:6">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" s="32" customFormat="1" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" s="32" customFormat="1" spans="1:6">
+      <c r="A13" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="27"/>
+      <c r="D13" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" ht="30" spans="1:6">
-      <c r="A14" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="39"/>
+      <c r="D15" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="39"/>
+      <c r="D16" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>66</v>
@@ -6540,94 +6491,92 @@
       <c r="D17" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="35"/>
+      <c r="E17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27" t="s">
-        <v>191</v>
+      <c r="A18" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="35"/>
+        <v>201</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" s="31" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" s="33" customFormat="1" ht="30" spans="1:5">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="43" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="17" t="s">
+      <c r="D21" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="34" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="44"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="1">
     <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6638,524 +6587,491 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14" style="18" customWidth="1"/>
-    <col min="2" max="2" width="71.5714285714286" style="18" customWidth="1"/>
-    <col min="3" max="3" width="50.8571428571429" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" style="18" customWidth="1"/>
-    <col min="5" max="5" width="55.2857142857143" style="18" customWidth="1"/>
-    <col min="6" max="6" width="20.1428571428571" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="18"/>
+    <col min="1" max="1" width="14" style="22" customWidth="1"/>
+    <col min="2" max="2" width="55" style="22" customWidth="1"/>
+    <col min="3" max="3" width="50.8571428571429" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" style="22" customWidth="1"/>
+    <col min="5" max="5" width="55.2857142857143" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.1428571428571" style="22" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="E1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="195" spans="1:6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="25"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="25"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="22" t="s">
+    </row>
+    <row r="6" ht="75" spans="1:3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B9" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="29"/>
+      <c r="B14" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="A17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="A18" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" ht="30" spans="1:7">
+      <c r="A19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="28" t="s">
+      <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="B21" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" ht="150" spans="1:7">
-      <c r="A25" s="28" t="s">
+      <c r="C21" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" ht="150" spans="1:7">
+      <c r="A22" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" ht="120" spans="1:7">
-      <c r="A26" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" ht="120" spans="1:7">
+      <c r="A23" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="B23" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" ht="165" spans="1:7">
-      <c r="A27" s="28" t="s">
+      <c r="C23" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" ht="165" spans="1:7">
+      <c r="A24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" ht="45" spans="1:7">
-      <c r="A28" s="29" t="s">
+      <c r="B24" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" ht="45" spans="1:7">
+      <c r="A25" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="B25" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29" t="s">
+      <c r="C25" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" ht="45" spans="1:7">
-      <c r="A30" s="28" t="s">
+      <c r="C26" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="45" spans="1:7">
+      <c r="A27" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" ht="30" spans="1:7">
-      <c r="A31" s="20" t="s">
+      <c r="B27" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="C27" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" ht="30" spans="1:7">
+      <c r="A28" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" ht="60" spans="1:7">
-      <c r="A32" s="20" t="s">
+      <c r="C28" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" ht="60" spans="1:7">
+      <c r="A29" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="20" t="s">
+      <c r="B29" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="B30" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="20" t="s">
+      <c r="C30" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="20" t="s">
+      <c r="C31" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" ht="45" spans="1:7">
-      <c r="A36" s="20" t="s">
+      <c r="C32" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" ht="45" spans="1:7">
+      <c r="A33" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" ht="195" spans="1:7">
-      <c r="A37" s="20" t="s">
+      <c r="B33" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" ht="195" spans="1:7">
+      <c r="A34" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" ht="45" spans="1:7">
-      <c r="A38" s="20" t="s">
+      <c r="B34" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" ht="45" spans="1:7">
+      <c r="A35" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="20" t="s">
+      <c r="B35" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" ht="30" spans="1:7">
+      <c r="A36" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" ht="30" spans="1:7">
-      <c r="A40" s="29" t="s">
+      <c r="B36" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" ht="30" spans="1:7">
+      <c r="A37" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="B38" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="C38" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="D38" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="C39" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
